--- a/data/trans_orig/P1432-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>9236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3852</v>
+        <v>4752</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17203</v>
+        <v>17535</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01330812615552464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005549941161967364</v>
+        <v>0.006847152737769609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02478747068968797</v>
+        <v>0.02526577366875404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>5107</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12177</v>
+        <v>12269</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007418638226823867</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002806310205540546</v>
+        <v>0.002796639307714666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01769067168274831</v>
+        <v>0.01782432991997096</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -785,19 +785,19 @@
         <v>14343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7688</v>
+        <v>7995</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23425</v>
+        <v>23324</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01037544159896062</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005561765499037862</v>
+        <v>0.005783557357108255</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01694540896996953</v>
+        <v>0.0168723228057928</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>684776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676809</v>
+        <v>676477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>690160</v>
+        <v>689260</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9866918738444753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9752125293103121</v>
+        <v>0.974734226331246</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9944500588380326</v>
+        <v>0.9931528472622304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>691</v>
@@ -835,19 +835,19 @@
         <v>683244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>676174</v>
+        <v>676082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>686419</v>
+        <v>686426</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9925813617731761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9823093283172517</v>
+        <v>0.9821756700800288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9971936897944594</v>
+        <v>0.9972033606922853</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1365</v>
@@ -856,19 +856,19 @@
         <v>1368020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1358938</v>
+        <v>1359039</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1374675</v>
+        <v>1374368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9896245584010394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9830545910300305</v>
+        <v>0.9831276771942072</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9944382345009621</v>
+        <v>0.9942164426428917</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>10222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17482</v>
+        <v>17403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01062829077089394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005345064115351464</v>
+        <v>0.005342739864821901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01817642821559105</v>
+        <v>0.01809415936286489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -981,19 +981,19 @@
         <v>16652</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9688</v>
+        <v>9705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28590</v>
+        <v>27174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01719530085537268</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01000439035984748</v>
+        <v>0.01002215891526351</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02952351891223491</v>
+        <v>0.02806120032827594</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -1002,19 +1002,19 @@
         <v>26874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17457</v>
+        <v>17877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39525</v>
+        <v>39694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01392301143853805</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00904435889736064</v>
+        <v>0.009261633427968263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02047704206984136</v>
+        <v>0.02056504137855701</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>951578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>944318</v>
+        <v>944397</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>956659</v>
+        <v>956661</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9893717092291061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9818235717844089</v>
+        <v>0.9819058406371352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9946549358846486</v>
+        <v>0.9946572601351781</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>893</v>
@@ -1052,19 +1052,19 @@
         <v>951741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>939803</v>
+        <v>941219</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>958705</v>
+        <v>958688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9828046991446273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9704764810877653</v>
+        <v>0.971938799671724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9899956096401525</v>
+        <v>0.9899778410847364</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1779</v>
@@ -1073,19 +1073,19 @@
         <v>1903319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1890668</v>
+        <v>1890499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1912736</v>
+        <v>1912316</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.986076988561462</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9795229579301588</v>
+        <v>0.9794349586214437</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9909556411026396</v>
+        <v>0.9907383665720318</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>7095</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3491</v>
+        <v>2691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15206</v>
+        <v>14809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01045692675127171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00514518548705541</v>
+        <v>0.0039658213942477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02241034286082389</v>
+        <v>0.02182568656056477</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1198,19 +1198,19 @@
         <v>10867</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5889</v>
+        <v>5919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18331</v>
+        <v>18747</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01589122823338808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00861150958596857</v>
+        <v>0.008654946687580583</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02680579222610916</v>
+        <v>0.02741433871813507</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1219,19 +1219,19 @@
         <v>17962</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10708</v>
+        <v>10746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27401</v>
+        <v>28543</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01318471218793536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007860245435571104</v>
+        <v>0.0078875574314352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02011273978602242</v>
+        <v>0.02095146810627642</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>671414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>663303</v>
+        <v>663700</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>675018</v>
+        <v>675818</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9895430732487283</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9775896571391759</v>
+        <v>0.978174313439435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9948548145129444</v>
+        <v>0.9960341786057523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -1269,19 +1269,19 @@
         <v>672974</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>665510</v>
+        <v>665094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>677952</v>
+        <v>677922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9841087717666119</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9731942077738909</v>
+        <v>0.9725856612818649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9913884904140314</v>
+        <v>0.9913450533124194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1319</v>
@@ -1290,19 +1290,19 @@
         <v>1344388</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1334949</v>
+        <v>1333807</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1351642</v>
+        <v>1351604</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9868152878120646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9798872602139773</v>
+        <v>0.979048531893724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9921397545644289</v>
+        <v>0.9921124425685649</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>9370</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4263</v>
+        <v>5029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16148</v>
+        <v>15971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009944604809256607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004524076579169576</v>
+        <v>0.005337907296229644</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01713814890442232</v>
+        <v>0.01695069699461591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1415,19 +1415,19 @@
         <v>18063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10622</v>
+        <v>11469</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28058</v>
+        <v>27657</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01739155898987006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01022678212489525</v>
+        <v>0.01104301477183899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02701516283191028</v>
+        <v>0.02662842272669734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1436,19 +1436,19 @@
         <v>27433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18411</v>
+        <v>19043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38668</v>
+        <v>40206</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01384927103035869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009294545380104652</v>
+        <v>0.009613582157333251</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01952112943152174</v>
+        <v>0.02029745704691118</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>932852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926074</v>
+        <v>926251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937959</v>
+        <v>937193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9900553951907434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9828618510955777</v>
+        <v>0.983049303005384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9954759234208305</v>
+        <v>0.9946620927037704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>980</v>
@@ -1486,19 +1486,19 @@
         <v>1020549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1010554</v>
+        <v>1010955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1027990</v>
+        <v>1027143</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9826084410101299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.97298483716809</v>
+        <v>0.9733715772733027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.989773217875105</v>
+        <v>0.988956985228161</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1963</v>
@@ -1507,19 +1507,19 @@
         <v>1953401</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1942166</v>
+        <v>1940628</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1962423</v>
+        <v>1961791</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9861507289696413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9804788705684783</v>
+        <v>0.9797025429530886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9907054546198952</v>
+        <v>0.9903864178426667</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>35923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01096382187600987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1632,19 +1632,19 @@
         <v>50689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01500018835515685</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1653,19 +1653,19 @@
         <v>86612</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01301313231358784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3240620</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3227408</v>
+        <v>3227808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3250654</v>
+        <v>3251055</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9890361781239901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9850039895473557</v>
+        <v>0.9851262435512269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9920987255980203</v>
+        <v>0.992221141413739</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3249</v>
@@ -1703,19 +1703,19 @@
         <v>3328508</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3312884</v>
+        <v>3311477</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3340823</v>
+        <v>3341836</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9849998116448432</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9803760524758519</v>
+        <v>0.9799597468138548</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9886441804828746</v>
+        <v>0.9889437919654746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6426</v>
@@ -1724,19 +1724,19 @@
         <v>6569129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6551258</v>
+        <v>6548734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6587875</v>
+        <v>6587258</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9869868676864122</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9843017520943528</v>
+        <v>0.9839226317437689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9898033277453883</v>
+        <v>0.9897107114930551</v>
       </c>
     </row>
     <row r="18">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6968</v>
+        <v>6724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002758828185246263</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009905340495391169</v>
+        <v>0.009558861058166935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2089,19 +2089,19 @@
         <v>15665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8507</v>
+        <v>8625</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26057</v>
+        <v>25585</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02247324840546218</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01220446831299297</v>
+        <v>0.01237384495691226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0373817954575151</v>
+        <v>0.03670478735122242</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2110,19 +2110,19 @@
         <v>17606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10129</v>
+        <v>10217</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27217</v>
+        <v>29223</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01257085987888631</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007232495223357643</v>
+        <v>0.00729529403776133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01943370732514803</v>
+        <v>0.020865698300098</v>
       </c>
     </row>
     <row r="5">
@@ -2139,7 +2139,7 @@
         <v>701528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>696501</v>
+        <v>696745</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>703469</v>
@@ -2148,7 +2148,7 @@
         <v>0.9972411718147537</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9900946595046088</v>
+        <v>0.9904411389418331</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2160,19 +2160,19 @@
         <v>681385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>670993</v>
+        <v>671465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>688543</v>
+        <v>688425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9775267515945378</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9626182045424849</v>
+        <v>0.9632952126487776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9877955316870071</v>
+        <v>0.9876261550430877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1308</v>
@@ -2181,19 +2181,19 @@
         <v>1382913</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1373302</v>
+        <v>1371296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1390390</v>
+        <v>1390302</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9874291401211137</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9805662926748518</v>
+        <v>0.979134301699902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9927675047766423</v>
+        <v>0.9927047059622387</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>6519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2124</v>
+        <v>2138</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15591</v>
+        <v>16714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006403705717067939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002086194288016976</v>
+        <v>0.002100638513241589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01531604353809738</v>
+        <v>0.01641906065204242</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2306,19 +2306,19 @@
         <v>15489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8822</v>
+        <v>8892</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25196</v>
+        <v>25556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01505246192172338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008573364566666344</v>
+        <v>0.00864167474156103</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02448698249279047</v>
+        <v>0.02483632399464651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -2327,19 +2327,19 @@
         <v>22007</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13211</v>
+        <v>12761</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34093</v>
+        <v>32477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01075137812098416</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006454213415453336</v>
+        <v>0.00623400828347659</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01665572438737516</v>
+        <v>0.01586634656148781</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1011428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002356</v>
+        <v>1001233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1015823</v>
+        <v>1015809</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9935962942829321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9846839564619027</v>
+        <v>0.9835809393479577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979138057119831</v>
+        <v>0.9978993614867584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>924</v>
@@ -2377,19 +2377,19 @@
         <v>1013484</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1003777</v>
+        <v>1003417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1020151</v>
+        <v>1020081</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9849475380782766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9755130175072095</v>
+        <v>0.9751636760053535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9914266354333336</v>
+        <v>0.991358325258439</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1855</v>
@@ -2398,19 +2398,19 @@
         <v>2024914</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2012828</v>
+        <v>2014444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2033710</v>
+        <v>2034160</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9892486218790159</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9833442756126248</v>
+        <v>0.9841336534385123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9935457865845467</v>
+        <v>0.9937659917165241</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>6166</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2076</v>
+        <v>2111</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13302</v>
+        <v>11920</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008138758536943742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002739895663538986</v>
+        <v>0.002786244935152012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01755701029813218</v>
+        <v>0.01573294741008089</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2523,19 +2523,19 @@
         <v>11653</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5586</v>
+        <v>5791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20965</v>
+        <v>20418</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01501519137400918</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007197816384492658</v>
+        <v>0.00746156458514157</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02701450296365717</v>
+        <v>0.02630935105203015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -2544,19 +2544,19 @@
         <v>17819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10219</v>
+        <v>9907</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29956</v>
+        <v>28932</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01161831836605709</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006663139193623085</v>
+        <v>0.006459890476683078</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01953189645146608</v>
+        <v>0.01886458320161452</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>751457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>744321</v>
+        <v>745703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>755547</v>
+        <v>755512</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9918612414630562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9824429897018678</v>
+        <v>0.9842670525899194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997260104336461</v>
+        <v>0.997213755064848</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>694</v>
@@ -2594,19 +2594,19 @@
         <v>764412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755100</v>
+        <v>755647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770479</v>
+        <v>770274</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9849848086259908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9729854970363429</v>
+        <v>0.9736906489479698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9928021836155075</v>
+        <v>0.9925384354148584</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1377</v>
@@ -2615,19 +2615,19 @@
         <v>1515870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1503733</v>
+        <v>1504757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1523470</v>
+        <v>1523782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9883816816339429</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9804681035485341</v>
+        <v>0.9811354167983858</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.993336860806377</v>
+        <v>0.9935401095233173</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>8032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3934</v>
+        <v>3038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16344</v>
+        <v>16167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008474574500164977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004151391618215039</v>
+        <v>0.003205899638656936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01724566636928363</v>
+        <v>0.01705859187239877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -2740,19 +2740,19 @@
         <v>15085</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8275</v>
+        <v>8908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24145</v>
+        <v>23873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01434087694041778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007866933053735706</v>
+        <v>0.008468471176619528</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02295335252221505</v>
+        <v>0.02269497451572072</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -2761,19 +2761,19 @@
         <v>23117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13950</v>
+        <v>15040</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34447</v>
+        <v>34066</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01156051410847319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006976305216768084</v>
+        <v>0.007521582668031435</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01722645104823857</v>
+        <v>0.01703597658295677</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>939707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>931395</v>
+        <v>931572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>943805</v>
+        <v>944701</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991525425499835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9827543336307173</v>
+        <v>0.9829414081276012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.995848608381785</v>
+        <v>0.9967941003613431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>988</v>
@@ -2811,19 +2811,19 @@
         <v>1036816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1027756</v>
+        <v>1028028</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1043626</v>
+        <v>1042993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9856591230595823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.977046647477785</v>
+        <v>0.9773050254842793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9921330669462647</v>
+        <v>0.9915315288233805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1891</v>
@@ -2832,19 +2832,19 @@
         <v>1976523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1965193</v>
+        <v>1965574</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1985690</v>
+        <v>1984600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9884394858915269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9827735489517615</v>
+        <v>0.9829640234170433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9930236947832319</v>
+        <v>0.9924784173319686</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>22657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14295</v>
+        <v>13582</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35810</v>
+        <v>35006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006611802623672383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004171528639609179</v>
+        <v>0.003963433618179132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01045004622711928</v>
+        <v>0.01021529970257599</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -2957,19 +2957,19 @@
         <v>57892</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44654</v>
+        <v>44627</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75001</v>
+        <v>78605</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01628916155515609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01256436411250381</v>
+        <v>0.01255686203642089</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02110338031769656</v>
+        <v>0.02211740285126669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -2978,19 +2978,19 @@
         <v>80549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61870</v>
+        <v>63574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101072</v>
+        <v>101118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01153865764904223</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008862921858948937</v>
+        <v>0.009107068813574579</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01447867572649579</v>
+        <v>0.01448518908091208</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3404122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3390969</v>
+        <v>3391773</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3412484</v>
+        <v>3413197</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9933881973763277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9895499537728808</v>
+        <v>0.9897847002974248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9958284713603909</v>
+        <v>0.9960365663818209</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3242</v>
@@ -3028,19 +3028,19 @@
         <v>3496098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3478989</v>
+        <v>3475385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3509336</v>
+        <v>3509363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9837108384448439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9788966196823036</v>
+        <v>0.9778825971487334</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9874356358874963</v>
+        <v>0.9874431379635791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6431</v>
@@ -3049,19 +3049,19 @@
         <v>6900220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6879697</v>
+        <v>6879651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6918899</v>
+        <v>6917195</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9884613423509577</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9855213242735041</v>
+        <v>0.9855148109190879</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.991137078141051</v>
+        <v>0.9908929311864254</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>5697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2381</v>
+        <v>2431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12517</v>
+        <v>12417</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008442103755936292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003528423587748926</v>
+        <v>0.003602787633929816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01854898263403178</v>
+        <v>0.0184016304156722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3414,19 +3414,19 @@
         <v>11539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5828</v>
+        <v>5800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19754</v>
+        <v>20968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01714945780621832</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008662461589070629</v>
+        <v>0.008620250435740122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02935879295446079</v>
+        <v>0.03116308360377558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -3435,19 +3435,19 @@
         <v>17236</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10374</v>
+        <v>10637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28034</v>
+        <v>26761</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01278944557621824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007698179896719586</v>
+        <v>0.007893150354179618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02080236471339715</v>
+        <v>0.01985789524699054</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>669103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662283</v>
+        <v>662383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672419</v>
+        <v>672369</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9915578962440637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9814510173659683</v>
+        <v>0.9815983695843281</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9964715764122511</v>
+        <v>0.9963972123660703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>655</v>
@@ -3485,19 +3485,19 @@
         <v>661300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>653085</v>
+        <v>651871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>667011</v>
+        <v>667039</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9828505421937817</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9706412070455392</v>
+        <v>0.9688369163962247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9913375384109294</v>
+        <v>0.9913797495642603</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1301</v>
@@ -3506,19 +3506,19 @@
         <v>1330403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1319605</v>
+        <v>1320878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1337265</v>
+        <v>1337002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9872105544237818</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9791976352866036</v>
+        <v>0.9801421047530097</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9923018201032806</v>
+        <v>0.9921068496458206</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>5329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1887</v>
+        <v>1863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11156</v>
+        <v>11750</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005212192032868982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001845239012033514</v>
+        <v>0.00182172917350425</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01091173760981828</v>
+        <v>0.01149188772084357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3631,19 +3631,19 @@
         <v>11668</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5799</v>
+        <v>5776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19642</v>
+        <v>20807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0111883430154457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005559934426943717</v>
+        <v>0.00553850919034586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01883414085735535</v>
+        <v>0.01995093934051153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -3652,19 +3652,19 @@
         <v>16998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9738</v>
+        <v>9928</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27093</v>
+        <v>27189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008229900259822008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0047148653100886</v>
+        <v>0.004806762762011012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01311804134527266</v>
+        <v>0.01316433155557228</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>1017102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1011275</v>
+        <v>1010681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1020544</v>
+        <v>1020568</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9947878079671311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9890882623901817</v>
+        <v>0.9885081122791565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981547609879664</v>
+        <v>0.9981782708264958</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>967</v>
@@ -3702,19 +3702,19 @@
         <v>1031245</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1023271</v>
+        <v>1022106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1037114</v>
+        <v>1037137</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9888116569845543</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9811658591426446</v>
+        <v>0.9800490606594886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9944400655730563</v>
+        <v>0.9944614908096543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1912</v>
@@ -3723,19 +3723,19 @@
         <v>2048346</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2038251</v>
+        <v>2038155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2055606</v>
+        <v>2055416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.991770099740178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9868819586547278</v>
+        <v>0.9868356684444279</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9952851346899114</v>
+        <v>0.995193237237989</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>3862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9378</v>
+        <v>9884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005085168170142723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001475151495219475</v>
+        <v>0.001485742604152439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01234729958137392</v>
+        <v>0.013012603738254</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3848,19 +3848,19 @@
         <v>12993</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6671</v>
+        <v>6895</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22219</v>
+        <v>21982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01655087264442321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00849786509634653</v>
+        <v>0.008783313601663401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02830432584119882</v>
+        <v>0.02800205778878065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3869,19 +3869,19 @@
         <v>16855</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10057</v>
+        <v>9782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28273</v>
+        <v>27220</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01091251351682902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006511297044285614</v>
+        <v>0.006333427556753754</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01830453593788503</v>
+        <v>0.01762338593489834</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>755690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>750174</v>
+        <v>749668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>758432</v>
+        <v>758424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9949148318298573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9876527004186261</v>
+        <v>0.9869873962617484</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985248485047805</v>
+        <v>0.9985142573958475</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>725</v>
@@ -3919,19 +3919,19 @@
         <v>772018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>762792</v>
+        <v>763029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>778340</v>
+        <v>778116</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9834491273555768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9716956741588014</v>
+        <v>0.9719979422112198</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9915021349036536</v>
+        <v>0.9912166863983367</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1417</v>
@@ -3940,19 +3940,19 @@
         <v>1527708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1516290</v>
+        <v>1517343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1534506</v>
+        <v>1534781</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.989087486483171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9816954640621151</v>
+        <v>0.9823766140651017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9934887029557145</v>
+        <v>0.9936665724432463</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>2628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7644</v>
+        <v>6934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002802707475517446</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0008317772084099427</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008153522468727087</v>
+        <v>0.007396032300386944</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -4065,19 +4065,19 @@
         <v>15070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8158</v>
+        <v>7951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26696</v>
+        <v>25473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01443757160212757</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007816305261404507</v>
+        <v>0.007617297077857401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02557612121862124</v>
+        <v>0.0244048708553185</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4086,19 +4086,19 @@
         <v>17697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9979</v>
+        <v>10033</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28133</v>
+        <v>29094</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008931988741047283</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005036323637285473</v>
+        <v>0.005063554509473596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01419896693245773</v>
+        <v>0.01468406233880159</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>934939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>929923</v>
+        <v>930633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>936787</v>
+        <v>937567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9971972925244825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9918464775312733</v>
+        <v>0.9926039676996135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.99916822279159</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>947</v>
@@ -4136,19 +4136,19 @@
         <v>1028709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1017083</v>
+        <v>1018306</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1035621</v>
+        <v>1035828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9855624283978724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9744238787813785</v>
+        <v>0.9755951291446815</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9921836947385955</v>
+        <v>0.9923827029221426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1876</v>
@@ -4157,19 +4157,19 @@
         <v>1963649</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1953213</v>
+        <v>1952252</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1971367</v>
+        <v>1971313</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9910680112589527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9858010330675422</v>
+        <v>0.9853159376611984</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9949636763627145</v>
+        <v>0.9949364454905264</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>17516</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11249</v>
+        <v>10491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27674</v>
+        <v>27523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005160344107166851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003313949028394946</v>
+        <v>0.003090804098487121</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008152979362129073</v>
+        <v>0.008108381856723079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -4282,19 +4282,19 @@
         <v>51270</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37237</v>
+        <v>38468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68316</v>
+        <v>69429</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01446436339241521</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01050554548161705</v>
+        <v>0.01085280345606824</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01927348825151559</v>
+        <v>0.01958768386774908</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -4303,19 +4303,19 @@
         <v>68786</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53790</v>
+        <v>53208</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88645</v>
+        <v>86376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009913046050064564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007751999497048452</v>
+        <v>0.007668092941202856</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0127750601052864</v>
+        <v>0.01244811168646032</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3376834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3366676</v>
+        <v>3366827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3383101</v>
+        <v>3383859</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9948396558928332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9918470206378708</v>
+        <v>0.9918916181432769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9966860509716048</v>
+        <v>0.9969091959015128</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3294</v>
@@ -4353,19 +4353,19 @@
         <v>3493272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3476226</v>
+        <v>3475113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3507305</v>
+        <v>3506074</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9855356366075848</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9807265117484849</v>
+        <v>0.9804123161322508</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9894944545183831</v>
+        <v>0.9891471965439317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6506</v>
@@ -4374,19 +4374,19 @@
         <v>6870106</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6850247</v>
+        <v>6852516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6885102</v>
+        <v>6885684</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9900869539499354</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9872249398947135</v>
+        <v>0.9875518883135397</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9922480005029515</v>
+        <v>0.9923319070587971</v>
       </c>
     </row>
     <row r="18">
